--- a/Libraries/Vehicle/Tire/MFSwift/sm_car_data_Tire_MFSwift.xlsx
+++ b/Libraries/Vehicle/Tire/MFSwift/sm_car_data_Tire_MFSwift.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Tire\MFSwift\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85533209-BD2D-40BD-AC7E-CA7AC94DFC4B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257CEE77-6A0C-403B-82C3-965D8A61B79F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{038AE485-2DF6-4480-A05B-AFF15F06FE64}"/>
+    <workbookView xWindow="1812" yWindow="1836" windowWidth="20424" windowHeight="10212" activeTab="4" xr2:uid="{038AE485-2DF6-4480-A05B-AFF15F06FE64}"/>
   </bookViews>
   <sheets>
     <sheet name="Tir_235_50R24" sheetId="2" r:id="rId1"/>
     <sheet name="Tir_213_40R21" sheetId="4" r:id="rId2"/>
     <sheet name="Tir_270_70R22" sheetId="5" r:id="rId3"/>
     <sheet name="Tir_145_70R13" sheetId="6" r:id="rId4"/>
+    <sheet name="Tir_430_50R38" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="43">
   <si>
     <t>Units</t>
   </si>
@@ -157,6 +158,12 @@
   </si>
   <si>
     <t>InternalSolver</t>
+  </si>
+  <si>
+    <t>MFSwift_430_50R38</t>
+  </si>
+  <si>
+    <t>which('Truck_430_50R38.tir')</t>
   </si>
 </sst>
 </file>
@@ -274,7 +281,42 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -723,22 +765,22 @@
   </sheetPr>
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -758,7 +800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -789,7 +831,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -822,7 +864,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -856,7 +898,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -888,7 +930,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -926,7 +968,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -957,7 +999,7 @@
       <c r="Z7"/>
       <c r="AA7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -983,7 +1025,7 @@
       <c r="Z8"/>
       <c r="AA8"/>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
@@ -1005,7 +1047,7 @@
       <c r="S9"/>
       <c r="T9"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1030,7 +1072,7 @@
       <c r="S10"/>
       <c r="T10"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1045,7 +1087,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
@@ -1054,7 +1096,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
@@ -1063,7 +1105,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -1072,7 +1114,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -1081,7 +1123,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -1090,25 +1132,25 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -1117,33 +1159,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="C21" s="17"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="C22" s="17"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="6"/>
       <c r="C25" s="17"/>
@@ -1165,7 +1207,7 @@
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="6"/>
       <c r="C26" s="17"/>
@@ -1189,22 +1231,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C21:C24 A21:A24 C4:D8 C9:C10 A4:A10 A12:A13 C12:C13">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11 A11">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1236,18 +1278,18 @@
       <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1267,7 +1309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1298,7 +1340,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1331,7 +1373,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -1365,7 +1407,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1397,7 +1439,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -1435,7 +1477,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -1466,7 +1508,7 @@
       <c r="Z7"/>
       <c r="AA7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -1494,7 +1536,7 @@
       <c r="Z8"/>
       <c r="AA8"/>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
@@ -1517,7 +1559,7 @@
       <c r="S9"/>
       <c r="T9"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1543,7 +1585,7 @@
       <c r="S10"/>
       <c r="T10"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1558,7 +1600,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
@@ -1567,7 +1609,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
@@ -1576,7 +1618,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -1585,7 +1627,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -1594,7 +1636,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -1603,57 +1645,57 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="C21" s="17"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="C22" s="17"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="6"/>
       <c r="C25" s="17"/>
@@ -1675,7 +1717,7 @@
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="6"/>
       <c r="C26" s="17"/>
@@ -1699,27 +1741,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C21:C24 A21:A24 C4:D8 C9:C10 A4:A10 A12:A13 C12:C13">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1750,18 +1792,18 @@
       <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1781,7 +1823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1812,7 +1854,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1845,7 +1887,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -1879,7 +1921,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1911,7 +1953,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -1949,7 +1991,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -1980,7 +2022,7 @@
       <c r="Z7"/>
       <c r="AA7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -2008,7 +2050,7 @@
       <c r="Z8"/>
       <c r="AA8"/>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
@@ -2031,7 +2073,7 @@
       <c r="S9"/>
       <c r="T9"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -2057,7 +2099,7 @@
       <c r="S10"/>
       <c r="T10"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>40</v>
       </c>
@@ -2072,7 +2114,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
@@ -2081,7 +2123,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
@@ -2090,7 +2132,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -2099,7 +2141,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -2108,7 +2150,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -2117,57 +2159,57 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="C21" s="17"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="C22" s="17"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="6"/>
       <c r="C25" s="17"/>
@@ -2189,7 +2231,7 @@
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="6"/>
       <c r="C26" s="17"/>
@@ -2213,27 +2255,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C21:C24 A21:A24 C4:D8 C9:C10 A4:A10 A12:A13 C12:C13">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2264,18 +2306,18 @@
       <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2295,7 +2337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2326,7 +2368,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -2359,7 +2401,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -2393,7 +2435,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -2425,7 +2467,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -2463,7 +2505,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -2494,7 +2536,7 @@
       <c r="Z7"/>
       <c r="AA7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -2522,7 +2564,7 @@
       <c r="Z8"/>
       <c r="AA8"/>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
@@ -2545,7 +2587,7 @@
       <c r="S9"/>
       <c r="T9"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -2571,7 +2613,7 @@
       <c r="S10"/>
       <c r="T10"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>40</v>
       </c>
@@ -2586,7 +2628,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
@@ -2595,7 +2637,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
@@ -2604,7 +2646,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -2613,7 +2655,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -2622,7 +2664,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -2631,57 +2673,57 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="C21" s="17"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="C22" s="17"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="6"/>
       <c r="C25" s="17"/>
@@ -2703,7 +2745,7 @@
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="6"/>
       <c r="C26" s="17"/>
@@ -2727,27 +2769,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C21:C24 A21:A24 C4:D8 C9:C10 A4:A10 A12:A13 C12:C13">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2762,4 +2804,518 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EFE2FD0-25ED-4314-9A75-8473D14A2B34}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:AA26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C19" sqref="C19"/>
+      <selection pane="topRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+    </row>
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3"/>
+      <c r="N3" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+    </row>
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4"/>
+      <c r="N4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+    </row>
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5"/>
+      <c r="N5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+    </row>
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="F6" s="15">
+        <v>10</v>
+      </c>
+      <c r="G6" s="16">
+        <v>1</v>
+      </c>
+      <c r="H6" s="16">
+        <v>2</v>
+      </c>
+      <c r="J6"/>
+      <c r="K6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+    </row>
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+    </row>
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+    </row>
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9" s="7"/>
+      <c r="N9"/>
+      <c r="O9" s="7"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+    </row>
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+    </row>
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="K12" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
+      <c r="K13" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="K14" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="K15" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="K16" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="17"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C21:C24 A21:A24 C4:D8 C9:C10 A4:A10 A12:A13 C12:C13">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8" xr:uid="{CB4B0E2B-959B-4D82-8C4D-E04932EBA6D6}">
+      <formula1>$K$4:$K$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9" xr:uid="{82B88A82-B4CC-4AAF-A138-E782C8850EAF}">
+      <formula1>$N$4:$N$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Libraries/Vehicle/Tire/MFSwift/sm_car_data_Tire_MFSwift.xlsx
+++ b/Libraries/Vehicle/Tire/MFSwift/sm_car_data_Tire_MFSwift.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Tire\MFSwift\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257CEE77-6A0C-403B-82C3-965D8A61B79F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369F83DF-9A17-45FE-8383-380A00B27D52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1812" yWindow="1836" windowWidth="20424" windowHeight="10212" activeTab="4" xr2:uid="{038AE485-2DF6-4480-A05B-AFF15F06FE64}"/>
+    <workbookView xWindow="1368" yWindow="600" windowWidth="17496" windowHeight="12120" tabRatio="667" firstSheet="1" activeTab="5" xr2:uid="{038AE485-2DF6-4480-A05B-AFF15F06FE64}"/>
   </bookViews>
   <sheets>
     <sheet name="Tir_235_50R24" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Tir_270_70R22" sheetId="5" r:id="rId3"/>
     <sheet name="Tir_145_70R13" sheetId="6" r:id="rId4"/>
     <sheet name="Tir_430_50R38" sheetId="7" r:id="rId5"/>
+    <sheet name="Tir_190_50R10" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="45">
   <si>
     <t>Units</t>
   </si>
@@ -164,6 +165,12 @@
   </si>
   <si>
     <t>which('Truck_430_50R38.tir')</t>
+  </si>
+  <si>
+    <t>which('fsae190_50R10.tir')</t>
+  </si>
+  <si>
+    <t>MFSwift_190_50R10</t>
   </si>
 </sst>
 </file>
@@ -281,7 +288,42 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="29">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1231,22 +1273,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C21:C24 A21:A24 C4:D8 C9:C10 A4:A10 A12:A13 C12:C13">
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11 A11">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1741,27 +1783,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C21:C24 A21:A24 C4:D8 C9:C10 A4:A10 A12:A13 C12:C13">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2255,27 +2297,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C21:C24 A21:A24 C4:D8 C9:C10 A4:A10 A12:A13 C12:C13">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2769,6 +2811,521 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C21:C24 A21:A24 C4:D8 C9:C10 A4:A10 A12:A13 C12:C13">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9" xr:uid="{43672052-5389-4C56-9E85-A898CA26191E}">
+      <formula1>$N$4:$N$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8" xr:uid="{A6556419-3157-4579-81F2-EBE26CDF928F}">
+      <formula1>$K$4:$K$6</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EFE2FD0-25ED-4314-9A75-8473D14A2B34}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:AA26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C19" sqref="C19"/>
+      <selection pane="topRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+    </row>
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3"/>
+      <c r="N3" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+    </row>
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4"/>
+      <c r="N4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+    </row>
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5"/>
+      <c r="N5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+    </row>
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="F6" s="15">
+        <v>10</v>
+      </c>
+      <c r="G6" s="16">
+        <v>1</v>
+      </c>
+      <c r="H6" s="16">
+        <v>2</v>
+      </c>
+      <c r="J6"/>
+      <c r="K6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+    </row>
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+    </row>
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+    </row>
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9" s="7"/>
+      <c r="N9"/>
+      <c r="O9" s="7"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+    </row>
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+    </row>
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="K12" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
+      <c r="K13" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="K14" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="K15" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="K16" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="17"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C21:C24 A21:A24 C4:D8 C9:C10 A4:A10 A12:A13 C12:C13">
     <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
@@ -2794,20 +3351,19 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9" xr:uid="{43672052-5389-4C56-9E85-A898CA26191E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8" xr:uid="{CB4B0E2B-959B-4D82-8C4D-E04932EBA6D6}">
+      <formula1>$K$4:$K$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9" xr:uid="{82B88A82-B4CC-4AAF-A138-E782C8850EAF}">
       <formula1>$N$4:$N$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8" xr:uid="{A6556419-3157-4579-81F2-EBE26CDF928F}">
-      <formula1>$K$4:$K$6</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EFE2FD0-25ED-4314-9A75-8473D14A2B34}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A09A3D-7C35-48AD-B909-136B64BAAA77}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
@@ -2818,7 +3374,7 @@
       <selection activeCell="C19" sqref="C19"/>
       <selection pane="topRight" activeCell="C19" sqref="C19"/>
       <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2892,7 +3448,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
@@ -2958,7 +3514,7 @@
       <c r="C5" s="5"/>
       <c r="G5" s="13"/>
       <c r="H5" s="20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J5"/>
       <c r="K5" s="6" t="s">
@@ -3309,11 +3865,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8" xr:uid="{CB4B0E2B-959B-4D82-8C4D-E04932EBA6D6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9" xr:uid="{72951BCE-BF90-4F80-ABE6-B06C6382F27D}">
+      <formula1>$N$4:$N$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8" xr:uid="{2AE6EA61-9F54-4141-847F-C32A5FEA8093}">
       <formula1>$K$4:$K$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9" xr:uid="{82B88A82-B4CC-4AAF-A138-E782C8850EAF}">
-      <formula1>$N$4:$N$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Libraries/Vehicle/Tire/MFSwift/sm_car_data_Tire_MFSwift.xlsx
+++ b/Libraries/Vehicle/Tire/MFSwift/sm_car_data_Tire_MFSwift.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Tire\MFSwift\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\simscape\demo\allsimscape\cars\vehicle-templates\Libraries\Vehicle\Tire\MFSwift\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369F83DF-9A17-45FE-8383-380A00B27D52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E8CD66-BD9B-45C3-A0B8-FD4E6641E861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1368" yWindow="600" windowWidth="17496" windowHeight="12120" tabRatio="667" firstSheet="1" activeTab="5" xr2:uid="{038AE485-2DF6-4480-A05B-AFF15F06FE64}"/>
+    <workbookView xWindow="732" yWindow="792" windowWidth="21600" windowHeight="12696" tabRatio="667" activeTab="2" xr2:uid="{038AE485-2DF6-4480-A05B-AFF15F06FE64}"/>
   </bookViews>
   <sheets>
     <sheet name="Tir_235_50R24" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="47">
   <si>
     <t>Units</t>
   </si>
@@ -68,9 +68,6 @@
     <t>which('235-50R24_8jR24_280_kPa.tir')</t>
   </si>
   <si>
-    <t>Inertia</t>
-  </si>
-  <si>
     <t>roadFile</t>
   </si>
   <si>
@@ -171,6 +168,15 @@
   </si>
   <si>
     <t>MFSwift_190_50R10</t>
+  </si>
+  <si>
+    <t>mjRim</t>
+  </si>
+  <si>
+    <t>Rim [Mass, Ixx, Iyy]</t>
+  </si>
+  <si>
+    <t>kg, kg*m^2</t>
   </si>
 </sst>
 </file>
@@ -288,7 +294,49 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="35">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -808,7 +856,7 @@
   <dimension ref="A1:AA26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A6" sqref="A6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -852,7 +900,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -882,16 +930,16 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M3"/>
       <c r="N3" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O3"/>
       <c r="P3"/>
@@ -917,15 +965,15 @@
       <c r="F4" s="10"/>
       <c r="G4" s="11"/>
       <c r="H4" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J4"/>
       <c r="K4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M4"/>
       <c r="N4" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O4"/>
       <c r="P4"/>
@@ -948,15 +996,15 @@
       <c r="C5" s="5"/>
       <c r="G5" s="13"/>
       <c r="H5" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J5"/>
       <c r="K5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M5"/>
       <c r="N5" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O5"/>
       <c r="P5"/>
@@ -974,27 +1022,33 @@
     </row>
     <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="F6" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G6" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6"/>
       <c r="K6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O6"/>
       <c r="P6"/>
@@ -1012,20 +1066,20 @@
     </row>
     <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="G7" s="13"/>
       <c r="H7" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O7"/>
       <c r="P7"/>
@@ -1043,13 +1097,13 @@
     </row>
     <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="G8" s="13"/>
       <c r="H8" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K8"/>
       <c r="L8"/>
@@ -1069,14 +1123,14 @@
     </row>
     <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9"/>
       <c r="K9"/>
@@ -1091,18 +1145,18 @@
     </row>
     <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I10"/>
       <c r="K10" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L10"/>
       <c r="M10"/>
@@ -1116,17 +1170,17 @@
     </row>
     <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -1135,7 +1189,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="14"/>
       <c r="K12" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -1144,7 +1198,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="14"/>
       <c r="K13" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -1153,7 +1207,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="K14" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -1162,7 +1216,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="K15" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -1171,7 +1225,7 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="K16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -1272,23 +1326,28 @@
       <c r="T26" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C21:C24 A21:A24 C4:D8 C9:C10 A4:A10 A12:A13 C12:C13">
-    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
+  <conditionalFormatting sqref="C21:C24 A21:A24 C4:D5 C9:C10 A4:A5 A12:A13 C12:C13 A7:A10 C7:D8">
+    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11 A11">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:D6 A6">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1317,7 +1376,7 @@
       <selection activeCell="G22" sqref="G22"/>
       <selection pane="topRight" activeCell="G22" sqref="G22"/>
       <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1361,7 +1420,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -1391,16 +1450,16 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M3"/>
       <c r="N3" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O3"/>
       <c r="P3"/>
@@ -1426,15 +1485,15 @@
       <c r="F4" s="10"/>
       <c r="G4" s="11"/>
       <c r="H4" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J4"/>
       <c r="K4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M4"/>
       <c r="N4" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O4"/>
       <c r="P4"/>
@@ -1457,15 +1516,15 @@
       <c r="C5" s="5"/>
       <c r="G5" s="13"/>
       <c r="H5" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5"/>
       <c r="K5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M5"/>
       <c r="N5" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O5"/>
       <c r="P5"/>
@@ -1483,27 +1542,33 @@
     </row>
     <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="F6" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G6" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6"/>
       <c r="K6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O6"/>
       <c r="P6"/>
@@ -1521,20 +1586,20 @@
     </row>
     <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="G7" s="13"/>
       <c r="H7" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O7"/>
       <c r="P7"/>
@@ -1552,13 +1617,13 @@
     </row>
     <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="G8" s="13"/>
       <c r="H8" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
@@ -1580,14 +1645,14 @@
     </row>
     <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -1603,19 +1668,19 @@
     </row>
     <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L10"/>
       <c r="M10"/>
@@ -1629,17 +1694,17 @@
     </row>
     <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -1648,7 +1713,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="14"/>
       <c r="K12" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -1657,7 +1722,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="14"/>
       <c r="K13" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -1666,7 +1731,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="K14" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -1675,7 +1740,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="K15" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -1684,7 +1749,7 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="K16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -1782,28 +1847,33 @@
       <c r="T26" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C21:C24 A21:A24 C4:D8 C9:C10 A4:A10 A12:A13 C12:C13">
-    <cfRule type="cellIs" dxfId="24" priority="5" operator="equal">
+  <conditionalFormatting sqref="C21:C24 A21:A24 C4:D5 C9:C10 A4:A5 A12:A13 C12:C13 A7:A10 C7:D8">
+    <cfRule type="cellIs" dxfId="29" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:D6 A6">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1826,12 +1896,12 @@
   </sheetPr>
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C19" sqref="C19"/>
       <selection pane="topRight" activeCell="C19" sqref="C19"/>
       <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1875,7 +1945,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -1905,16 +1975,16 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M3"/>
       <c r="N3" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O3"/>
       <c r="P3"/>
@@ -1940,15 +2010,15 @@
       <c r="F4" s="10"/>
       <c r="G4" s="11"/>
       <c r="H4" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J4"/>
       <c r="K4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M4"/>
       <c r="N4" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O4"/>
       <c r="P4"/>
@@ -1971,15 +2041,15 @@
       <c r="C5" s="5"/>
       <c r="G5" s="13"/>
       <c r="H5" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5"/>
       <c r="K5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M5"/>
       <c r="N5" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O5"/>
       <c r="P5"/>
@@ -1997,27 +2067,33 @@
     </row>
     <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="F6" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G6" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6"/>
       <c r="K6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O6"/>
       <c r="P6"/>
@@ -2035,20 +2111,20 @@
     </row>
     <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="G7" s="13"/>
       <c r="H7" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O7"/>
       <c r="P7"/>
@@ -2066,13 +2142,13 @@
     </row>
     <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="G8" s="13"/>
       <c r="H8" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
@@ -2094,14 +2170,14 @@
     </row>
     <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -2117,19 +2193,19 @@
     </row>
     <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L10"/>
       <c r="M10"/>
@@ -2143,17 +2219,17 @@
     </row>
     <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2162,7 +2238,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="14"/>
       <c r="K12" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2171,7 +2247,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="14"/>
       <c r="K13" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2180,7 +2256,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="K14" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2189,7 +2265,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="K15" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2198,7 +2274,7 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="K16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2296,28 +2372,33 @@
       <c r="T26" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C21:C24 A21:A24 C4:D8 C9:C10 A4:A10 A12:A13 C12:C13">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+  <conditionalFormatting sqref="C21:C24 A21:A24 C4:D5 C9:C10 A4:A5 A12:A13 C12:C13 A7:A10 C7:D8">
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:D6 A6">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2330,6 +2411,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2345,7 +2427,7 @@
       <selection activeCell="C19" sqref="C19"/>
       <selection pane="topRight" activeCell="C19" sqref="C19"/>
       <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2389,7 +2471,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -2419,16 +2501,16 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M3"/>
       <c r="N3" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O3"/>
       <c r="P3"/>
@@ -2454,15 +2536,15 @@
       <c r="F4" s="10"/>
       <c r="G4" s="11"/>
       <c r="H4" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J4"/>
       <c r="K4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M4"/>
       <c r="N4" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O4"/>
       <c r="P4"/>
@@ -2485,15 +2567,15 @@
       <c r="C5" s="5"/>
       <c r="G5" s="13"/>
       <c r="H5" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5"/>
       <c r="K5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M5"/>
       <c r="N5" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O5"/>
       <c r="P5"/>
@@ -2511,27 +2593,33 @@
     </row>
     <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="F6" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G6" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6"/>
       <c r="K6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O6"/>
       <c r="P6"/>
@@ -2549,20 +2637,20 @@
     </row>
     <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="G7" s="13"/>
       <c r="H7" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O7"/>
       <c r="P7"/>
@@ -2580,13 +2668,13 @@
     </row>
     <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="G8" s="13"/>
       <c r="H8" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
@@ -2608,14 +2696,14 @@
     </row>
     <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -2631,19 +2719,19 @@
     </row>
     <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L10"/>
       <c r="M10"/>
@@ -2657,17 +2745,17 @@
     </row>
     <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2676,7 +2764,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="14"/>
       <c r="K12" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2685,7 +2773,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="14"/>
       <c r="K13" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2694,7 +2782,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="K14" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2703,7 +2791,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="K15" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2712,7 +2800,7 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="K16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2810,28 +2898,33 @@
       <c r="T26" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C21:C24 A21:A24 C4:D8 C9:C10 A4:A10 A12:A13 C12:C13">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
+  <conditionalFormatting sqref="C21:C24 A21:A24 C4:D5 C9:C10 A4:A5 A12:A13 C12:C13 A7:A10 C7:D8">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:D6 A6">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2860,7 +2953,7 @@
       <selection activeCell="C19" sqref="C19"/>
       <selection pane="topRight" activeCell="C19" sqref="C19"/>
       <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2904,7 +2997,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -2934,16 +3027,16 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M3"/>
       <c r="N3" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O3"/>
       <c r="P3"/>
@@ -2969,15 +3062,15 @@
       <c r="F4" s="10"/>
       <c r="G4" s="11"/>
       <c r="H4" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J4"/>
       <c r="K4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M4"/>
       <c r="N4" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O4"/>
       <c r="P4"/>
@@ -3000,15 +3093,15 @@
       <c r="C5" s="5"/>
       <c r="G5" s="13"/>
       <c r="H5" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J5"/>
       <c r="K5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M5"/>
       <c r="N5" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O5"/>
       <c r="P5"/>
@@ -3026,27 +3119,33 @@
     </row>
     <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="F6" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G6" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6"/>
       <c r="K6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O6"/>
       <c r="P6"/>
@@ -3064,20 +3163,20 @@
     </row>
     <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="G7" s="13"/>
       <c r="H7" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O7"/>
       <c r="P7"/>
@@ -3095,13 +3194,13 @@
     </row>
     <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="G8" s="13"/>
       <c r="H8" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
@@ -3123,14 +3222,14 @@
     </row>
     <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -3146,19 +3245,19 @@
     </row>
     <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L10"/>
       <c r="M10"/>
@@ -3172,17 +3271,17 @@
     </row>
     <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3191,7 +3290,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="14"/>
       <c r="K12" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3200,7 +3299,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="14"/>
       <c r="K13" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3209,7 +3308,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="K14" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3218,7 +3317,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="K15" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3227,7 +3326,7 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="K16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3325,28 +3424,33 @@
       <c r="T26" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C21:C24 A21:A24 C4:D8 C9:C10 A4:A10 A12:A13 C12:C13">
+  <conditionalFormatting sqref="C21:C24 A21:A24 C4:D5 C9:C10 A4:A5 A12:A13 C12:C13 A7:A10 C7:D8">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
     <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
+  <conditionalFormatting sqref="C11">
     <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+  <conditionalFormatting sqref="A11">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+  <conditionalFormatting sqref="C6:D6 A6">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3369,12 +3473,12 @@
   </sheetPr>
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C19" sqref="C19"/>
       <selection pane="topRight" activeCell="C19" sqref="C19"/>
       <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3418,7 +3522,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -3448,16 +3552,16 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M3"/>
       <c r="N3" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O3"/>
       <c r="P3"/>
@@ -3483,15 +3587,15 @@
       <c r="F4" s="10"/>
       <c r="G4" s="11"/>
       <c r="H4" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J4"/>
       <c r="K4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M4"/>
       <c r="N4" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O4"/>
       <c r="P4"/>
@@ -3514,15 +3618,15 @@
       <c r="C5" s="5"/>
       <c r="G5" s="13"/>
       <c r="H5" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J5"/>
       <c r="K5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M5"/>
       <c r="N5" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O5"/>
       <c r="P5"/>
@@ -3540,27 +3644,33 @@
     </row>
     <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="F6" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G6" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6"/>
       <c r="K6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O6"/>
       <c r="P6"/>
@@ -3578,20 +3688,20 @@
     </row>
     <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="G7" s="13"/>
       <c r="H7" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O7"/>
       <c r="P7"/>
@@ -3609,13 +3719,13 @@
     </row>
     <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="G8" s="13"/>
       <c r="H8" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
@@ -3637,14 +3747,14 @@
     </row>
     <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -3660,19 +3770,19 @@
     </row>
     <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L10"/>
       <c r="M10"/>
@@ -3686,17 +3796,17 @@
     </row>
     <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3705,7 +3815,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="14"/>
       <c r="K12" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3714,7 +3824,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="14"/>
       <c r="K13" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3723,7 +3833,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="K14" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3732,7 +3842,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="K15" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3741,7 +3851,7 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="K16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3839,27 +3949,32 @@
       <c r="T26" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C21:C24 A21:A24 C4:D8 C9:C10 A4:A10 A12:A13 C12:C13">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+  <conditionalFormatting sqref="C21:C24 A21:A24 A4:A5 A12:A13 C12:C13 A7:A10 C8:C10 C4:D7">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
+  <conditionalFormatting sqref="A6">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>

--- a/Libraries/Vehicle/Tire/MFSwift/sm_car_data_Tire_MFSwift.xlsx
+++ b/Libraries/Vehicle/Tire/MFSwift/sm_car_data_Tire_MFSwift.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Tire\MFSwift\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6260C575-0275-4826-9C9F-412CAF3BB1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47E4995-2BF0-41FE-B63B-B2062F3156FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="2190" windowWidth="20595" windowHeight="11235" tabRatio="667" activeTab="2" xr2:uid="{038AE485-2DF6-4480-A05B-AFF15F06FE64}"/>
+    <workbookView xWindow="4740" yWindow="2640" windowWidth="21555" windowHeight="11295" tabRatio="667" activeTab="3" xr2:uid="{038AE485-2DF6-4480-A05B-AFF15F06FE64}"/>
   </bookViews>
   <sheets>
     <sheet name="Tir_235_50R24" sheetId="2" r:id="rId1"/>
     <sheet name="Tir_213_40R21" sheetId="4" r:id="rId2"/>
     <sheet name="Tir_214_10R39" sheetId="9" r:id="rId3"/>
-    <sheet name="Tir_270_70R22" sheetId="5" r:id="rId4"/>
-    <sheet name="Tir_145_70R13" sheetId="6" r:id="rId5"/>
-    <sheet name="Tir_430_50R38" sheetId="7" r:id="rId6"/>
-    <sheet name="Tir_190_50R10" sheetId="8" r:id="rId7"/>
+    <sheet name="Tir_235_80R17" sheetId="10" r:id="rId4"/>
+    <sheet name="Tir_270_70R22" sheetId="5" r:id="rId5"/>
+    <sheet name="Tir_145_70R13" sheetId="6" r:id="rId6"/>
+    <sheet name="Tir_430_50R38" sheetId="7" r:id="rId7"/>
+    <sheet name="Tir_190_50R10" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="51">
   <si>
     <t>Units</t>
   </si>
@@ -184,6 +185,12 @@
   </si>
   <si>
     <t>which('Truck_214_10R39.tir')</t>
+  </si>
+  <si>
+    <t>MFSwift_235_80R17</t>
+  </si>
+  <si>
+    <t>which('car235_80R17.tir')</t>
   </si>
 </sst>
 </file>
@@ -291,7 +298,35 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="32">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1098,22 +1133,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:A26">
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C13">
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C24">
-    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D8 A4:A13">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1433,22 +1468,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:A26">
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C13">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C24">
-    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D8 A4:A13">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1471,7 +1506,7 @@
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G22" sqref="G22"/>
       <selection pane="topRight" activeCell="G22" sqref="G22"/>
@@ -1767,6 +1802,340 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:A26">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:C13">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C24">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:D8 A4:A13">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8" xr:uid="{1D07890F-740C-4755-AF7B-52F6E8C41CF1}">
+      <formula1>$K$4:$K$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9" xr:uid="{DA20FDF1-3E67-462D-A68E-AAE09C70F36B}">
+      <formula1>$N$4:$N$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED02E05D-89CC-4AE7-9CA4-2A2A15B7A3EB}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:O26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="G22" sqref="G22"/>
+      <selection pane="topRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="K15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="K16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="16"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="16"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C25" s="16"/>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="16"/>
+      <c r="H26" s="17"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A21:A26">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
@@ -1787,10 +2156,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8" xr:uid="{1D07890F-740C-4755-AF7B-52F6E8C41CF1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8" xr:uid="{27F0B81B-A5B4-4997-B474-191E59E49990}">
       <formula1>$K$4:$K$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9" xr:uid="{DA20FDF1-3E67-462D-A68E-AAE09C70F36B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9" xr:uid="{61C192F8-A542-437B-BB85-E057AB92135C}">
       <formula1>$N$4:$N$7</formula1>
     </dataValidation>
   </dataValidations>
@@ -1798,7 +2167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618A16B1-979A-45DF-9817-8992A8D0AF5D}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
@@ -2133,7 +2502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB49D6F-468E-418F-A062-1D81E654217C}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
@@ -2468,7 +2837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EFE2FD0-25ED-4314-9A75-8473D14A2B34}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
@@ -2802,7 +3171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A09A3D-7C35-48AD-B909-136B64BAAA77}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
